--- a/Excel to Json/bunpou.xlsx
+++ b/Excel to Json/bunpou.xlsx
@@ -2336,7 +2336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2383,7 +2383,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2713,7 +2713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="48.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="82.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="100.5" customFormat="1" s="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="69.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="57" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="69.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="48.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="53.25" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
